--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/20/seed5/result_data_RandomForest.xlsx
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.614</v>
+        <v>-13.7245</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.1921</v>
+        <v>-11.31799999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.4335</v>
+        <v>-13.3571</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.6232</v>
+        <v>-12.463</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.4194</v>
+        <v>-13.733</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.62009999999999</v>
+        <v>-13.51779999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.96530000000001</v>
+        <v>-13.1187</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.17270000000001</v>
+        <v>-11.86580000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.0063</v>
+        <v>-11.91330000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1079,7 +1079,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.75369999999999</v>
+        <v>-14.55459999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.9898</v>
+        <v>-13.1233</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.76260000000001</v>
+        <v>-13.74260000000001</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1219,7 +1219,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.92659999999999</v>
+        <v>-12.9349</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.60530000000001</v>
+        <v>-11.599</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.74159999999999</v>
+        <v>-11.95799999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1443,7 +1443,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.7071</v>
+        <v>-11.7421</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.18240000000001</v>
+        <v>-11.16890000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.56920000000001</v>
+        <v>-13.69750000000001</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.25769999999999</v>
+        <v>-14.33299999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.3545</v>
+        <v>-12.4953</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.42149999999999</v>
+        <v>-10.4451</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.74790000000001</v>
+        <v>-12.06410000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-13.08060000000001</v>
+        <v>-12.90930000000001</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
@@ -1905,7 +1905,7 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-12.92080000000001</v>
+        <v>-12.64340000000001</v>
       </c>
       <c r="D105" t="n">
         <v>-8.630000000000001</v>
